--- a/Python with Selenium/PythonSelFramework/pythondemo.xlsx
+++ b/Python with Selenium/PythonSelFramework/pythondemo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedpa\OneDrive\Desktop\Training Folder\Python with Selenium\PythonSelFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1BC903-820E-4992-B338-17C3BE2EC885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76D3E5-8736-456C-9618-9E80FCF928A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3108" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7248" yWindow="6840" windowWidth="17292" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>firstname</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>cardnumber</t>
+  </si>
+  <si>
+    <t>cardholdername</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>rahul</t>
   </si>
 </sst>
 </file>
@@ -372,15 +384,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -390,8 +407,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -404,8 +430,17 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="F2">
+        <v>1234</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>123</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
